--- a/Prototypes/Canola/DualPurpose.xlsx
+++ b/Prototypes/Canola/DualPurpose.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Canola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61AB3690-661E-441B-9DB5-51177D5A42DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE6E63-7EC7-4B23-B2CE-384D0E520DB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34335" yWindow="4065" windowWidth="28800" windowHeight="15570" xr2:uid="{82FDB4BE-E74B-4488-8680-42A462D2A87F}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="12346" xr2:uid="{82FDB4BE-E74B-4488-8680-42A462D2A87F}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="AvGMCotton">#REF!</definedName>
     <definedName name="AvGMSorg">#REF!</definedName>
@@ -128,9 +125,6 @@
     <t>Canola.Leaf.Live.Wt</t>
   </si>
   <si>
-    <t>Canola.Stem.Live.Wt</t>
-  </si>
-  <si>
     <t>Canola.AboveGround.Wt</t>
   </si>
   <si>
@@ -156,6 +150,9 @@
   </si>
   <si>
     <t>SimulationName</t>
+  </si>
+  <si>
+    <t>Canola.Stem.Wt</t>
   </si>
 </sst>
 </file>
@@ -210,33 +207,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="OBSPhenology"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="PhenologyWorking"/>
-      <sheetName val="LeafAppearanceOLD"/>
-      <sheetName val="OBSLeafAppearance"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="NSW_WA_90s"/>
-      <sheetName val="OCP_CanolaData"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7873D758-2B96-4EE8-A7C0-7EBF4418075C}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -572,34 +542,34 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
       </c>
       <c r="K1" t="s">
         <v>23</v>
@@ -649,7 +619,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A2" t="str">
-        <f>B2&amp;H2&amp;C2&amp;"Cv"&amp;D2</f>
+        <f t="shared" ref="A2:A29" si="0">B2&amp;H2&amp;C2&amp;"Cv"&amp;D2</f>
         <v>Greenethorpe2013_Ex1CvHyola971_CL</v>
       </c>
       <c r="B2" t="s">
@@ -694,7 +664,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A3" t="str">
-        <f>B3&amp;H3&amp;C3&amp;"Cv"&amp;D3</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex1CvHyola971_CL</v>
       </c>
       <c r="B3" t="s">
@@ -739,7 +709,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A4" t="str">
-        <f>B4&amp;H4&amp;C4&amp;"Cv"&amp;D4</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex1CvHyola971_CL</v>
       </c>
       <c r="B4" t="s">
@@ -787,7 +757,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A5" t="str">
-        <f>B5&amp;H5&amp;C5&amp;"Cv"&amp;D5</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex1CvHyola971_CL</v>
       </c>
       <c r="B5" t="s">
@@ -835,7 +805,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A6" t="str">
-        <f>B6&amp;H6&amp;C6&amp;"Cv"&amp;D6</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex1CvHyola971_CL</v>
       </c>
       <c r="B6" t="s">
@@ -883,7 +853,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A7" t="str">
-        <f>B7&amp;H7&amp;C7&amp;"Cv"&amp;D7</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex1CvHyola971_CL</v>
       </c>
       <c r="B7" t="s">
@@ -928,7 +898,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A8" t="str">
-        <f>B8&amp;H8&amp;C8&amp;"Cv"&amp;D8</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex1CvHyola971_CL</v>
       </c>
       <c r="B8" t="s">
@@ -991,7 +961,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A9" t="str">
-        <f>B9&amp;H9&amp;C9&amp;"Cv"&amp;D9</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex2CvHyola_575_CL_GT</v>
       </c>
       <c r="B9" t="s">
@@ -1021,7 +991,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A10" t="str">
-        <f>B10&amp;H10&amp;C10&amp;"Cv"&amp;D10</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex2CvHyola_575_CL_GT</v>
       </c>
       <c r="B10" t="s">
@@ -1069,7 +1039,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A11" t="str">
-        <f>B11&amp;H11&amp;C11&amp;"Cv"&amp;D11</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex2CvHyola_575_CL_GT</v>
       </c>
       <c r="B11" t="s">
@@ -1117,7 +1087,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A12" t="str">
-        <f>B12&amp;H12&amp;C12&amp;"Cv"&amp;D12</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex2CvHyola_575_CL_GT</v>
       </c>
       <c r="B12" t="s">
@@ -1165,7 +1135,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A13" t="str">
-        <f>B13&amp;H13&amp;C13&amp;"Cv"&amp;D13</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex2CvHyola_575_CL_GT</v>
       </c>
       <c r="B13" t="s">
@@ -1213,7 +1183,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A14" t="str">
-        <f>B14&amp;H14&amp;C14&amp;"Cv"&amp;D14</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex2CvHyola_575_CL_GT</v>
       </c>
       <c r="B14" t="s">
@@ -1276,7 +1246,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A15" t="str">
-        <f>B15&amp;H15&amp;C15&amp;"Cv"&amp;D15</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvAV_Garnet</v>
       </c>
       <c r="B15" t="s">
@@ -1324,7 +1294,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A16" t="str">
-        <f>B16&amp;H16&amp;C16&amp;"Cv"&amp;D16</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvCrusher_TT</v>
       </c>
       <c r="B16" t="s">
@@ -1372,7 +1342,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A17" t="str">
-        <f>B17&amp;H17&amp;C17&amp;"Cv"&amp;D17</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvHyola_575_CL_GT</v>
       </c>
       <c r="B17" t="s">
@@ -1420,7 +1390,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A18" t="str">
-        <f>B18&amp;H18&amp;C18&amp;"Cv"&amp;D18</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvAV_Garnet</v>
       </c>
       <c r="B18" t="s">
@@ -1474,7 +1444,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A19" t="str">
-        <f>B19&amp;H19&amp;C19&amp;"Cv"&amp;D19</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvCrusher_TT</v>
       </c>
       <c r="B19" t="s">
@@ -1528,7 +1498,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A20" t="str">
-        <f>B20&amp;H20&amp;C20&amp;"Cv"&amp;D20</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvHyola_575_CL_GT</v>
       </c>
       <c r="B20" t="s">
@@ -1582,7 +1552,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A21" t="str">
-        <f>B21&amp;H21&amp;C21&amp;"Cv"&amp;D21</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvAV_Garnet</v>
       </c>
       <c r="B21" t="s">
@@ -1639,7 +1609,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A22" t="str">
-        <f>B22&amp;H22&amp;C22&amp;"Cv"&amp;D22</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvCrusher_TT</v>
       </c>
       <c r="B22" t="s">
@@ -1696,7 +1666,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A23" t="str">
-        <f>B23&amp;H23&amp;C23&amp;"Cv"&amp;D23</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvHyola_575_CL_GT</v>
       </c>
       <c r="B23" t="s">
@@ -1753,7 +1723,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A24" t="str">
-        <f>B24&amp;H24&amp;C24&amp;"Cv"&amp;D24</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvAV_Garnet</v>
       </c>
       <c r="B24" t="s">
@@ -1798,7 +1768,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A25" t="str">
-        <f>B25&amp;H25&amp;C25&amp;"Cv"&amp;D25</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvCrusher_TT</v>
       </c>
       <c r="B25" t="s">
@@ -1843,7 +1813,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A26" t="str">
-        <f>B26&amp;H26&amp;C26&amp;"Cv"&amp;D26</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvHyola_575_CL_GT</v>
       </c>
       <c r="B26" t="s">
@@ -1888,7 +1858,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A27" t="str">
-        <f>B27&amp;H27&amp;C27&amp;"Cv"&amp;D27</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvAV_Garnet</v>
       </c>
       <c r="B27" t="s">
@@ -1954,7 +1924,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A28" t="str">
-        <f>B28&amp;H28&amp;C28&amp;"Cv"&amp;D28</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvCrusher_TT</v>
       </c>
       <c r="B28" t="s">
@@ -2020,7 +1990,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A29" t="str">
-        <f>B29&amp;H29&amp;C29&amp;"Cv"&amp;D29</f>
+        <f t="shared" si="0"/>
         <v>Greenethorpe2013_Ex3CvHyola_575_CL_GT</v>
       </c>
       <c r="B29" t="s">
